--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c5756466e0f4e15/Documents/Website/johnwendt.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{60A1C041-A34C-402D-8D6C-3AEE89BB028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8927597D-A736-4858-9188-47442E196D2F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{60A1C041-A34C-402D-8D6C-3AEE89BB028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C6BADA-C1DA-495D-8CBB-F2CDEBCC3016}"/>
   <bookViews>
-    <workbookView xWindow="4716" yWindow="2280" windowWidth="17280" windowHeight="9072" xr2:uid="{11A854A9-80B3-4F0C-9739-9E8BCEFEBCD1}"/>
+    <workbookView xWindow="3792" yWindow="2280" windowWidth="17280" windowHeight="9072" xr2:uid="{11A854A9-80B3-4F0C-9739-9E8BCEFEBCD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,21 +84,12 @@
     <t>Synthesis of key social, economic, and ecological changes affecting rangeland ecosystems and rural communities in Montana.</t>
   </si>
   <si>
-    <t>&lt;b&gt;Wendt, J.&lt;/b&gt; (2015). The Restoration Process: Lessons from a Community-Based Conservation Initiative in Tunkhel, Mongolia. &lt;i&gt;Independent Study Project (ISP) Collection&lt;/i&gt;. 2085.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Wendt, J.A.F.&lt;/b&gt;, Paschke, M.W. (2018). Temporal variability of soil seed banks in lodgepole pine forests. &lt;i&gt;Journal of Undergraduate Research&lt;/i&gt;.</t>
-  </si>
-  <si>
     <t>Temporal variability of soil seed banks in lodgepole pine forests</t>
   </si>
   <si>
     <t>The restoration process: lessons from a community-based conservation initiative in Tunkhel, Mongolia</t>
   </si>
   <si>
-    <t>Epstein, K., Wood, D.J.A., Roemer, K., Currey, B., Duff, H., Gay, J.D., Goemann, H., Loewen, S, Milligan, M.C., &lt;b&gt;Wendt, J.A.F.&lt;/b&gt;, Brookshire, E.N.J, McNew, L., McWethy, D.B., Maxwell, B.D., Stoy, P.C., Haggerty, J. (2021). Toward an urgent yet deliberate conservation strategy: sustaining social-ecological systems in rangelands of the Northern Great Plains, Montana. &lt;i&gt;Ecology and Society&lt;/i&gt;. 26(1).</t>
-  </si>
-  <si>
     <t>http://johnwendt.github.io/files/2021-Epstein-et-al.pdf</t>
   </si>
   <si>
@@ -109,6 +100,15 @@
   </si>
   <si>
     <t>Epstein-et-al</t>
+  </si>
+  <si>
+    <t>Epstein, K., Wood, D.J.A., Roemer, K., Currey, B., Duff, H., Gay, J.D., Goemann, H., Loewen, S, Milligan, M.C., Wendt, J.A.F., Brookshire, E.N.J, McNew, L., McWethy, D.B., Maxwell, B.D., Stoy, P.C., Haggerty, J. (2021). Toward an urgent yet deliberate conservation strategy: sustaining social-ecological systems in rangelands of the Northern Great Plains, Montana. &lt;i&gt;Ecology and Society&lt;/i&gt;. 26(1).</t>
+  </si>
+  <si>
+    <t>Wendt, J.A.F., Paschke, M.W. (2018). Temporal variability of soil seed banks in lodgepole pine forests. &lt;i&gt;Journal of Undergraduate Research&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t>Wendt, J. (2015). The Restoration Process: Lessons from a Community-Based Conservation Initiative in Tunkhel, Mongolia. &lt;i&gt;Independent Study Project (ISP) Collection&lt;/i&gt;. 2085.</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>42186</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -518,10 +518,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -532,7 +532,7 @@
         <v>43377</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -541,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -564,13 +564,13 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c5756466e0f4e15/Documents/Website/johnwendt.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{60A1C041-A34C-402D-8D6C-3AEE89BB028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C6BADA-C1DA-495D-8CBB-F2CDEBCC3016}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{60A1C041-A34C-402D-8D6C-3AEE89BB028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925A4A09-EEE7-4476-AB2C-90F02F0E6B0A}"/>
   <bookViews>
-    <workbookView xWindow="3792" yWindow="2280" windowWidth="17280" windowHeight="9072" xr2:uid="{11A854A9-80B3-4F0C-9739-9E8BCEFEBCD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{11A854A9-80B3-4F0C-9739-9E8BCEFEBCD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>pub_date</t>
   </si>
@@ -60,15 +60,9 @@
     <t>SIT Independent Study Project Collection</t>
   </si>
   <si>
-    <t>A report on ecological and social context of a riparian restoration project in Tunkhel, Mongolia.</t>
-  </si>
-  <si>
     <t>Journal of Undergraduate Research</t>
   </si>
   <si>
-    <t>Seed germination study across a chronosequence of lodgepole pine forests in the Colorado Front Range.</t>
-  </si>
-  <si>
     <t>http://johnwendt.github.io/files/2015-Wendt.pdf</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
   </si>
   <si>
     <t>Ecology and Society</t>
-  </si>
-  <si>
-    <t>Synthesis of key social, economic, and ecological changes affecting rangeland ecosystems and rural communities in Montana.</t>
   </si>
   <si>
     <t>Temporal variability of soil seed banks in lodgepole pine forests</t>
@@ -473,7 +464,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,22 +500,19 @@
         <v>42186</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -532,22 +520,19 @@
         <v>43377</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -555,22 +540,19 @@
         <v>44232</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
